--- a/dataset/dataset/距離関数_C-4F.xlsx
+++ b/dataset/dataset/距離関数_C-4F.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\toyoshshiUT\lecture\master\InformationAndCommunicationSystems1\2025TUTlocalizeationProject_B\dataset\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FC3CF5-4420-49F0-B042-E3026C921719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FD0988-99B4-412A-A10A-A4DEA1CA3F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{3D9E3848-A978-40B8-A353-A8E97DD0826E}"/>
   </bookViews>
@@ -148,7 +148,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -193,7 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -581,7 +581,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -707,7 +707,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1527,8 +1527,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.2157046248047223"/>
-                  <c:y val="-0.32107611548556431"/>
+                  <c:x val="0.28692368181008004"/>
+                  <c:y val="-7.2251385243511226E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1563,10 +1563,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$V$3:$V$6</c:f>
+              <c:f>Sheet1!$V$3:$V$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>-64.319999999999993</c:v>
                 </c:pt>
@@ -1576,18 +1576,15 @@
                 <c:pt idx="2">
                   <c:v>-68</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>-70.924050632911403</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$W$3:$W$6</c:f>
+              <c:f>Sheet1!$W$3:$W$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>12.658988901172163</c:v>
                 </c:pt>
@@ -1596,9 +1593,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>11.360017605620159</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.336041391657421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10420,15 +10414,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>273050</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11005,8 +10999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D9C8E2-B3C8-4F46-B643-20321FE5175A}">
   <dimension ref="A1:BT16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -11344,12 +11338,12 @@
         <v>-64.319999999999993</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W7" si="1">SQRT(POWER(Q3-T3,2)+POWER(R3-U3,2))</f>
+        <f t="shared" ref="W3:W6" si="1">SQRT(POWER(Q3-T3,2)+POWER(R3-U3,2))</f>
         <v>12.658988901172163</v>
       </c>
       <c r="X3">
         <f>ABS(W3-(V3*R$16+T$16))</f>
-        <v>0.67669690117216419</v>
+        <v>3.5836901172158875E-2</v>
       </c>
       <c r="Y3">
         <v>30.1</v>
@@ -11532,7 +11526,7 @@
         <v>11.7</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H15" si="4">ABS(G4-(F4*B$16+D$16))</f>
+        <f t="shared" ref="H4:H11" si="4">ABS(G4-(F4*B$16+D$16))</f>
         <v>1.7107799999999997</v>
       </c>
       <c r="I4">
@@ -11585,7 +11579,7 @@
       </c>
       <c r="X4">
         <f>ABS(W4-(V4*R$16+T$16))</f>
-        <v>0.32544872865958219</v>
+        <v>8.4068728659588032E-2</v>
       </c>
       <c r="Y4">
         <v>30.1</v>
@@ -11820,8 +11814,8 @@
         <v>11.360017605620159</v>
       </c>
       <c r="X5">
-        <f t="shared" ref="X4:X6" si="14">ABS(W5-(V5*R$16+T$16))</f>
-        <v>1.0108823943798395</v>
+        <f t="shared" ref="X5:X6" si="14">ABS(W5-(V5*R$16+T$16))</f>
+        <v>3.9217605620157414E-2</v>
       </c>
       <c r="Y5">
         <v>30.1</v>
@@ -11924,7 +11918,7 @@
         <v>0.80000000000000071</v>
       </c>
       <c r="BL5">
-        <f t="shared" ref="BL4:BL14" si="15">ABS(BK5-(BJ5*BF$16+BH$16))</f>
+        <f t="shared" ref="BL5:BL14" si="15">ABS(BK5-(BJ5*BF$16+BH$16))</f>
         <v>3.3227339999999996</v>
       </c>
       <c r="BM5">
@@ -12026,12 +12020,12 @@
         <v>-70.924050632911403</v>
       </c>
       <c r="W6">
-        <f>SQRT(POWER(Q6-T6,2)+POWER(R6-U6,2))</f>
+        <f t="shared" si="1"/>
         <v>13.336041391657421</v>
       </c>
       <c r="X6">
         <f t="shared" si="14"/>
-        <v>0.65636164482197756</v>
+        <v>3.0500629106447619</v>
       </c>
       <c r="Y6">
         <v>30.1</v>
@@ -12887,27 +12881,27 @@
         <v>23</v>
       </c>
       <c r="R16">
-        <v>-0.1056</v>
+        <v>0.35389999999999999</v>
       </c>
       <c r="S16" t="s">
         <v>24</v>
       </c>
       <c r="T16">
-        <v>5.1901000000000002</v>
+        <v>35.386000000000003</v>
       </c>
       <c r="U16" t="s">
         <v>26</v>
       </c>
       <c r="V16">
         <f>MAX(X3:X14)</f>
-        <v>1.0108823943798395</v>
+        <v>3.0500629106447619</v>
       </c>
       <c r="W16" t="s">
         <v>27</v>
       </c>
       <c r="X16">
         <f>AVERAGE(X3:X15)</f>
-        <v>0.66734741725839086</v>
+        <v>0.80229653652416655</v>
       </c>
       <c r="Y16" t="s">
         <v>23</v>
